--- a/work/V1.2_新增字段(1月25号更新).xlsx
+++ b/work/V1.2_新增字段(1月25号更新).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9001CE97-5B42-4A85-918C-26C7D1EE18B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89FBD75-71FA-4DAE-A3F6-E396E94220C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="1140" windowWidth="14430" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1039">
   <si>
     <t>字段名</t>
   </si>
@@ -3503,9 +3503,6 @@
   <si>
     <t>桥跨编号</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>主梁材料</t>
   </si>
   <si>
     <t>主梁数量</t>
@@ -3566,9 +3563,6 @@
   </si>
   <si>
     <t>横梁数量</t>
-  </si>
-  <si>
-    <t>横梁数量</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3710,16 +3704,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>截面形式</t>
-  </si>
-  <si>
     <t>横梁材料</t>
-  </si>
-  <si>
-    <t>横梁截面形式</t>
-  </si>
-  <si>
-    <t>湿接缝数量</t>
   </si>
   <si>
     <t>横隔板数量</t>
@@ -4567,6 +4552,877 @@
   </si>
   <si>
     <t>bridge_panel_width</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>T型刚构桥</t>
+  </si>
+  <si>
+    <t>牛腿</t>
+  </si>
+  <si>
+    <t>挂梁长度(m)</t>
+  </si>
+  <si>
+    <t>挂梁高度(m)</t>
+  </si>
+  <si>
+    <t>挂梁支撑方式</t>
+  </si>
+  <si>
+    <t>悬臂梁长度(m)</t>
+  </si>
+  <si>
+    <t>bull_leg_size</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull_leg</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>clapboard_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>clapboard_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>material_hbm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_xbl</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(上部结构悬臂梁桥--挂梁)hanging beam</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_count</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_length</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_slice_width</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbl_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbl_count</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbl_section_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>xbl_length</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_hold_on_method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_support_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_beam_support_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>material_atfd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_xbl</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">材料(上部结构悬臂梁桥--防落梁装置)Anti-falling beam device </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_falling_beam_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>anti_falling_beam_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续刚构桥</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>主梁支点梁高(m)</t>
+  </si>
+  <si>
+    <t>主梁顶面宽度(m)</t>
+  </si>
+  <si>
+    <t>主梁跨中梁高(m)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_girder_length</t>
+  </si>
+  <si>
+    <t>main_girder_top_surface_width</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍架片衍片形式</t>
+  </si>
+  <si>
+    <t>主结点材料</t>
+  </si>
+  <si>
+    <t>主结点结点形式</t>
+  </si>
+  <si>
+    <t>桥面板截面形式</t>
+  </si>
+  <si>
+    <t>连接件形式</t>
+  </si>
+  <si>
+    <t>衍架片材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>material_slc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_yjl</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice_blade_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_node_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_node_node_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_panel_section_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁形式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接件材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>connector_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>connector_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>上承式拱桥</t>
+  </si>
+  <si>
+    <t>主拱圈材料</t>
+  </si>
+  <si>
+    <t>主拱圈截面形式</t>
+  </si>
+  <si>
+    <t>主拱圈拱轴线型</t>
+  </si>
+  <si>
+    <t>腹孔材料</t>
+  </si>
+  <si>
+    <t>主拱圈截面形式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹孔形式</t>
+  </si>
+  <si>
+    <t>腹孔线型</t>
+  </si>
+  <si>
+    <t>横向联系材料</t>
+  </si>
+  <si>
+    <t>横向联系形式</t>
+  </si>
+  <si>
+    <t>腹孔墩材料</t>
+  </si>
+  <si>
+    <t>腹孔墩形式</t>
+  </si>
+  <si>
+    <t>腹孔墩材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面板形式</t>
+  </si>
+  <si>
+    <t>span_serial_number</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>主拱圈材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_arch_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_arch_section_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_arch_line_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly_hole_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly_hole_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly_hole_line_model</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向联系材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontal_contact_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontal_contact_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly_hole_pier_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly_hole_pier_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_panel_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>中承式拱桥</t>
+  </si>
+  <si>
+    <t>系杠材料</t>
+  </si>
+  <si>
+    <t>系杠形式</t>
+  </si>
+  <si>
+    <t>系杠防护方式</t>
+  </si>
+  <si>
+    <t>吊杠材料</t>
+  </si>
+  <si>
+    <t>吊杠形式</t>
+  </si>
+  <si>
+    <t>吊杠防护形式</t>
+  </si>
+  <si>
+    <t>中承式拱桥腹孔线性</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly_hole_line_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>系杠材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie_bar_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie_bar_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_bar_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_bar_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie_bar_protect_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_bar_protect_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>下承式拱桥</t>
+  </si>
+  <si>
+    <t>主拱截面形式</t>
+  </si>
+  <si>
+    <t>吊杠类型</t>
+  </si>
+  <si>
+    <t>桥面板截面形式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang_bar_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥面板-材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜拉桥</t>
+  </si>
+  <si>
+    <t>桥塔材料</t>
+  </si>
+  <si>
+    <t>桥塔形式纵向</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>加劲梁材料</t>
+  </si>
+  <si>
+    <t>拉索材料</t>
+  </si>
+  <si>
+    <t>加劲梁支撑方式</t>
+  </si>
+  <si>
+    <t>拉索类型</t>
+  </si>
+  <si>
+    <t>拉索防护措施</t>
+  </si>
+  <si>
+    <t>锚具材料</t>
+  </si>
+  <si>
+    <t>锚具类型</t>
+  </si>
+  <si>
+    <t>加劲梁截面形式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥塔材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_tower_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥塔形式横向</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_tower_form_horizontal</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_tower_form_vertical</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>加劲梁材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiffening_beam_material</t>
+  </si>
+  <si>
+    <t>stiffening_beam_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiffening_beam_section_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>stiffening_beam_support_way</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasso_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasso_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchor_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬索桥</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>形式横向</t>
+  </si>
+  <si>
+    <t>形式纵向</t>
+  </si>
+  <si>
+    <t>防护措施</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>形式</t>
+  </si>
+  <si>
+    <t>form_horizontal</t>
+  </si>
+  <si>
+    <t>form_vertical</t>
+  </si>
+  <si>
+    <t>主缆材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_cable_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect_method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasso_protect_method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>锚定材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchored_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_form</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>索鞍材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>cable_saddle_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>湿接缝宽度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥台身截面形状(桥台身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥台身类型(桥台身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥台身高度（m）(桥台身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥台身平面尺寸（m）(桥台身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>基底尺寸（m）(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础高度（m）(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩长（m）(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>承台高度（m）(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩基排数(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥台翼墙材料(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(桥墩身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>截面形状(桥墩身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(桥墩身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>高度（m）(桥墩身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>截面尺寸（m）(桥墩身)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型(桥墩基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地尺寸（m）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础高度</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩长</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩劲</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>承台高度（m）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩基根数</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩基排数</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(下部结构--桥台)abutment</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_abmt</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_abmt_body</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(桥台身)abutment_body     ---v1.2第二轮新增</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_shape_dskht</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_shape_abmt_body</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_body_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_body_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_body_plane size</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_base_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_bottom_size</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_base_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_pile_length</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_pile_diameter</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩径（m）(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_platform_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桩基根数(桥台基础)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_pile_root_count</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_pile_row_count</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>abmt_base_wing_wall_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_material</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_body_section_shape</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_body_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_body_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_body_section_size</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_base_type</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_ground_size</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_pile_length</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_pile_diameter</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_platform_height</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_pile_root_count</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>pier_base_pile_row_count</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>下部结构第二轮新增</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_jzl</t>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_zhl</t>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_txggq</t>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_lxggq</t>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_yjgq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_scsgq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_zcsgq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_xcsgq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_xlq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_xsq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info_lxggq</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>桁架拱桥</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向联系形式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>系杠防护方式</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>截面形式</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -4581,12 +5437,33 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>梁高度(m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>主</t>
+      <t>梁宽度(m)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主梁跨度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>横梁材料</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>横梁高度</t>
     </r>
     <r>
       <rPr>
@@ -4596,12 +5473,29 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>梁宽度(m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>主梁跨度</t>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>横梁长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(m)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>横梁厚度</t>
     </r>
     <r>
       <rPr>
@@ -4613,917 +5507,33 @@
       </rPr>
       <t>(m)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>横梁高度</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿接缝数量</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>(m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>横梁长度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>横梁厚度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-  </si>
-  <si>
-    <t>T型刚构桥</t>
-  </si>
-  <si>
-    <t>牛腿</t>
-  </si>
-  <si>
-    <t>挂梁长度(m)</t>
-  </si>
-  <si>
-    <t>挂梁高度(m)</t>
-  </si>
-  <si>
-    <t>挂梁支撑方式</t>
-  </si>
-  <si>
-    <t>悬臂梁长度(m)</t>
-  </si>
-  <si>
-    <t>bull_leg_size</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bull_leg</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>clapboard_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>clapboard_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>material_hbm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_xbl</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料(上部结构悬臂梁桥--挂梁)hanging beam</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_count</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_length</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_slice_width</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>xbl_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>xbl_count</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>xbl_section_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>xbl_length</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_hold_on_method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_support_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_beam_support_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>material_atfd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_xbl</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">材料(上部结构悬臂梁桥--防落梁装置)Anti-falling beam device </t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>anti_falling_beam_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>anti_falling_beam_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续刚构桥</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>主梁支点梁高(m)</t>
-  </si>
-  <si>
-    <t>主梁顶面宽度(m)</t>
-  </si>
-  <si>
-    <t>主梁跨中梁高(m)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_girder_length</t>
-  </si>
-  <si>
-    <t>main_girder_top_surface_width</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>衍架片衍片形式</t>
-  </si>
-  <si>
-    <t>主结点材料</t>
-  </si>
-  <si>
-    <t>主结点结点形式</t>
-  </si>
-  <si>
-    <t>桥面板截面形式</t>
-  </si>
-  <si>
-    <t>连接件形式</t>
-  </si>
-  <si>
-    <t>衍架片材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>material_slc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_yjl</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice_blade_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_node_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_node_node_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_panel_section_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>横梁形式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接件材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>connector_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>connector_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>上承式拱桥</t>
-  </si>
-  <si>
-    <t>主拱圈材料</t>
-  </si>
-  <si>
-    <t>主拱圈截面形式</t>
-  </si>
-  <si>
-    <t>主拱圈拱轴线型</t>
-  </si>
-  <si>
-    <t>腹孔材料</t>
-  </si>
-  <si>
-    <t>主拱圈截面形式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>腹孔形式</t>
-  </si>
-  <si>
-    <t>腹孔线型</t>
-  </si>
-  <si>
-    <t>横向联系材料</t>
-  </si>
-  <si>
-    <t>横向联系形式</t>
-  </si>
-  <si>
-    <t>腹孔墩材料</t>
-  </si>
-  <si>
-    <t>腹孔墩形式</t>
-  </si>
-  <si>
-    <t>腹孔墩材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥面板形式</t>
-  </si>
-  <si>
-    <t>span_serial_number</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>主拱圈材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_arch_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_arch_section_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_arch_line_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>belly_hole_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>belly_hole_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>belly_hole_line_model</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向联系材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>horizontal_contact_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>horizontal_contact_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>belly_hole_pier_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>belly_hole_pier_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_panel_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>中承式拱桥</t>
-  </si>
-  <si>
-    <t>系杠材料</t>
-  </si>
-  <si>
-    <t>系杠形式</t>
-  </si>
-  <si>
-    <t>系杠防护方式</t>
-  </si>
-  <si>
-    <t>吊杠材料</t>
-  </si>
-  <si>
-    <t>吊杠形式</t>
-  </si>
-  <si>
-    <t>吊杠防护形式</t>
-  </si>
-  <si>
-    <t>中承式拱桥腹孔线性</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>belly_hole_line_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>系杠材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>tie_bar_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>tie_bar_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_bar_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_bar_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>tie_bar_protect_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_bar_protect_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>下承式拱桥</t>
-  </si>
-  <si>
-    <t>主拱截面形式</t>
-  </si>
-  <si>
-    <t>吊杠类型</t>
-  </si>
-  <si>
-    <t>桥面板截面形式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>hang_bar_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥面板-材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>斜拉桥</t>
-  </si>
-  <si>
-    <t>桥塔材料</t>
-  </si>
-  <si>
-    <t>桥塔形式纵向</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>加劲梁材料</t>
-  </si>
-  <si>
-    <t>拉索材料</t>
-  </si>
-  <si>
-    <t>加劲梁支撑方式</t>
-  </si>
-  <si>
-    <t>拉索类型</t>
-  </si>
-  <si>
-    <t>拉索防护措施</t>
-  </si>
-  <si>
-    <t>锚具材料</t>
-  </si>
-  <si>
-    <t>锚具类型</t>
-  </si>
-  <si>
-    <t>加劲梁截面形式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥塔材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_tower_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥塔形式横向</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_tower_form_horizontal</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bridge_tower_form_vertical</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>加劲梁材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>stiffening_beam_material</t>
-  </si>
-  <si>
-    <t>stiffening_beam_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>stiffening_beam_section_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>stiffening_beam_support_way</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>lasso_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>lasso_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>anchor_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>anchor_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬索桥</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>形式横向</t>
-  </si>
-  <si>
-    <t>形式纵向</t>
-  </si>
-  <si>
-    <t>防护措施</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>形式</t>
-  </si>
-  <si>
-    <t>form_horizontal</t>
-  </si>
-  <si>
-    <t>form_vertical</t>
-  </si>
-  <si>
-    <t>主缆材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_cable_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>protect_method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>lasso_protect_method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>锚定材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>anchored_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>the_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>the_form</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>索鞍材料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>cable_saddle_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>湿接缝宽度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(m)</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥台身截面形状(桥台身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥台身类型(桥台身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥台身高度（m）(桥台身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥台身平面尺寸（m）(桥台身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础类型(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基底尺寸（m）(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础高度（m）(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩长（m）(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>承台高度（m）(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩基排数(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥台翼墙材料(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料(桥墩身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>截面形状(桥墩身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(桥墩身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>高度（m）(桥墩身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>截面尺寸（m）(桥墩身)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础类型(桥墩基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基地尺寸（m）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础高度</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩长</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩劲</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>承台高度（m）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩基根数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩基排数</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料(下部结构--桥台)abutment</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_abmt</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_abmt_body</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料(桥台身)abutment_body     ---v1.2第二轮新增</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>section_shape_dskht</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>section_shape_abmt_body</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_body_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_body_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_body_plane size</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_base_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_bottom_size</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_base_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_pile_length</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_pile_diameter</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩径（m）(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_platform_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桩基根数(桥台基础)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_pile_root_count</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_pile_row_count</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>abmt_base_wing_wall_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_material</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_body_section_shape</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_body_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_body_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_body_section_size</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_base_type</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_ground_size</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_pile_length</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_pile_diameter</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_platform_height</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_pile_root_count</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>pier_base_pile_row_count</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>下部结构第二轮新增</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_jzl</t>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_zhl</t>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_txggq</t>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_lxggq</t>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_yjgq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_scsgq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_zcsgq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_xcsgq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_xlq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_xsq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bge_superstructrue_info_lxggq</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>桁架拱桥</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向联系形式</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>系杠防护方式</t>
+      <t>梁高度(m)</t>
+    </r>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5531,7 +5541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5769,6 +5779,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -5906,9 +5930,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5918,6 +5939,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7060,8 +7084,8 @@
   <dimension ref="A1:E522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A463" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B469" sqref="B469"/>
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I349" sqref="I349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7431,7 +7455,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C34" t="s">
         <v>669</v>
@@ -7665,7 +7689,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>74</v>
@@ -7761,8 +7785,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
-        <v>792</v>
+      <c r="A64" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="B64" t="s">
         <v>89</v>
@@ -7771,7 +7795,7 @@
         <v>90</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -7779,7 +7803,7 @@
         <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>92</v>
@@ -7789,8 +7813,8 @@
       <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>748</v>
+      <c r="C66" s="25" t="s">
+        <v>743</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>92</v>
@@ -7798,10 +7822,10 @@
     </row>
     <row r="67" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>803</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>749</v>
+        <v>798</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>744</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>92</v>
@@ -7812,7 +7836,7 @@
         <v>94</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>92</v>
@@ -7825,8 +7849,8 @@
       <c r="B69" t="s">
         <v>95</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>750</v>
+      <c r="C69" s="25" t="s">
+        <v>745</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>92</v>
@@ -7836,8 +7860,8 @@
       <c r="B70" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>751</v>
+      <c r="C70" s="25" t="s">
+        <v>746</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>92</v>
@@ -7847,8 +7871,8 @@
       <c r="B71" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>752</v>
+      <c r="C71" s="25" t="s">
+        <v>747</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>92</v>
@@ -7858,8 +7882,8 @@
       <c r="B72" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>753</v>
+      <c r="C72" s="25" t="s">
+        <v>748</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>92</v>
@@ -7867,10 +7891,10 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C73" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>92</v>
@@ -7878,10 +7902,10 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C74" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>92</v>
@@ -7889,10 +7913,10 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C75" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>92</v>
@@ -7900,10 +7924,10 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C76" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>92</v>
@@ -7911,10 +7935,10 @@
     </row>
     <row r="77" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>742</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>729</v>
+        <v>737</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>724</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>92</v>
@@ -7922,10 +7946,10 @@
     </row>
     <row r="78" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>741</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>754</v>
+        <v>736</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>749</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>92</v>
@@ -7938,8 +7962,8 @@
       <c r="B79" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>755</v>
+      <c r="C79" s="27" t="s">
+        <v>750</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>92</v>
@@ -7952,8 +7976,8 @@
       <c r="B80" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="27" t="s">
-        <v>756</v>
+      <c r="C80" s="26" t="s">
+        <v>751</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>92</v>
@@ -7963,8 +7987,8 @@
       <c r="B81" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="27" t="s">
-        <v>757</v>
+      <c r="C81" s="26" t="s">
+        <v>752</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>92</v>
@@ -7974,8 +7998,8 @@
       <c r="B82" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="25" t="s">
-        <v>738</v>
+      <c r="C82" s="24" t="s">
+        <v>733</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>92</v>
@@ -7985,8 +8009,8 @@
       <c r="B83" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="25" t="s">
-        <v>739</v>
+      <c r="C83" s="24" t="s">
+        <v>734</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>92</v>
@@ -7996,16 +8020,16 @@
       <c r="B84" t="s">
         <v>104</v>
       </c>
-      <c r="C84" s="25" t="s">
-        <v>740</v>
+      <c r="C84" s="24" t="s">
+        <v>735</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="29" t="s">
-        <v>790</v>
+      <c r="A87" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
@@ -8052,7 +8076,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="8" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C91" t="s">
         <v>113</v>
@@ -8349,8 +8373,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="29" t="s">
-        <v>789</v>
+      <c r="A118" s="28" t="s">
+        <v>784</v>
       </c>
       <c r="B118" t="s">
         <v>89</v>
@@ -8502,10 +8526,10 @@
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C131" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="D131" t="s">
         <v>167</v>
@@ -8717,10 +8741,10 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="8" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C150" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="D150" t="s">
         <v>167</v>
@@ -8775,10 +8799,10 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="8" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="C156" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="D156" t="s">
         <v>233</v>
@@ -8830,7 +8854,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="C161" t="s">
         <v>242</v>
@@ -8964,14 +8988,14 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="29" t="s">
-        <v>1026</v>
+      <c r="A173" s="28" t="s">
+        <v>1015</v>
       </c>
       <c r="B173" t="s">
-        <v>994</v>
-      </c>
-      <c r="C173" s="31" t="s">
-        <v>995</v>
+        <v>983</v>
+      </c>
+      <c r="C173" s="30" t="s">
+        <v>984</v>
       </c>
       <c r="D173" t="s">
         <v>233</v>
@@ -8979,10 +9003,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>997</v>
-      </c>
-      <c r="C174" s="31" t="s">
-        <v>967</v>
+        <v>986</v>
+      </c>
+      <c r="C174" s="30" t="s">
+        <v>956</v>
       </c>
       <c r="D174" t="s">
         <v>233</v>
@@ -8990,10 +9014,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>998</v>
-      </c>
-      <c r="C175" s="31" t="s">
-        <v>968</v>
+        <v>987</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>957</v>
       </c>
       <c r="D175" t="s">
         <v>233</v>
@@ -9001,10 +9025,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>999</v>
-      </c>
-      <c r="C176" s="31" t="s">
-        <v>969</v>
+        <v>988</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>958</v>
       </c>
       <c r="D176" t="s">
         <v>233</v>
@@ -9012,10 +9036,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C177" s="31" t="s">
-        <v>970</v>
+        <v>989</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>959</v>
       </c>
       <c r="D177" t="s">
         <v>233</v>
@@ -9023,10 +9047,10 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C178" s="31" t="s">
-        <v>971</v>
+        <v>990</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>960</v>
       </c>
       <c r="D178" t="s">
         <v>233</v>
@@ -9034,10 +9058,10 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C179" s="31" t="s">
-        <v>972</v>
+        <v>991</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>961</v>
       </c>
       <c r="D179" t="s">
         <v>233</v>
@@ -9045,10 +9069,10 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C180" s="31" t="s">
-        <v>973</v>
+        <v>992</v>
+      </c>
+      <c r="C180" s="30" t="s">
+        <v>962</v>
       </c>
       <c r="D180" t="s">
         <v>233</v>
@@ -9056,10 +9080,10 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C181" s="31" t="s">
-        <v>974</v>
+        <v>993</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>963</v>
       </c>
       <c r="D181" t="s">
         <v>233</v>
@@ -9067,10 +9091,10 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C182" s="31" t="s">
-        <v>975</v>
+        <v>994</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>964</v>
       </c>
       <c r="D182" t="s">
         <v>233</v>
@@ -9078,10 +9102,10 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C183" s="31" t="s">
-        <v>1007</v>
+        <v>995</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>996</v>
       </c>
       <c r="D183" t="s">
         <v>233</v>
@@ -9089,10 +9113,10 @@
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C184" s="31" t="s">
-        <v>976</v>
+        <v>997</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>965</v>
       </c>
       <c r="D184" t="s">
         <v>233</v>
@@ -9100,10 +9124,10 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C185" s="31" t="s">
-        <v>1009</v>
+        <v>999</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>998</v>
       </c>
       <c r="D185" t="s">
         <v>233</v>
@@ -9111,10 +9135,10 @@
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C186" s="31" t="s">
-        <v>977</v>
+        <v>1000</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>966</v>
       </c>
       <c r="D186" t="s">
         <v>233</v>
@@ -9122,10 +9146,10 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C187" s="31" t="s">
-        <v>978</v>
+        <v>1001</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>967</v>
       </c>
       <c r="D187" t="s">
         <v>233</v>
@@ -9133,10 +9157,10 @@
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>979</v>
+        <v>1002</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>968</v>
       </c>
       <c r="D188" t="s">
         <v>233</v>
@@ -9144,10 +9168,10 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C189" s="31" t="s">
-        <v>980</v>
+        <v>1003</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>969</v>
       </c>
       <c r="D189" t="s">
         <v>233</v>
@@ -9155,10 +9179,10 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C190" s="31" t="s">
-        <v>981</v>
+        <v>1004</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>970</v>
       </c>
       <c r="D190" t="s">
         <v>233</v>
@@ -9166,10 +9190,10 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C191" s="31" t="s">
-        <v>982</v>
+        <v>1005</v>
+      </c>
+      <c r="C191" s="30" t="s">
+        <v>971</v>
       </c>
       <c r="D191" t="s">
         <v>233</v>
@@ -9177,10 +9201,10 @@
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C192" s="31" t="s">
-        <v>983</v>
+        <v>1006</v>
+      </c>
+      <c r="C192" s="30" t="s">
+        <v>972</v>
       </c>
       <c r="D192" t="s">
         <v>233</v>
@@ -9188,10 +9212,10 @@
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C193" s="31" t="s">
-        <v>984</v>
+        <v>1007</v>
+      </c>
+      <c r="C193" s="30" t="s">
+        <v>973</v>
       </c>
       <c r="D193" t="s">
         <v>233</v>
@@ -9199,10 +9223,10 @@
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C194" s="31" t="s">
-        <v>985</v>
+        <v>1008</v>
+      </c>
+      <c r="C194" s="30" t="s">
+        <v>974</v>
       </c>
       <c r="D194" t="s">
         <v>233</v>
@@ -9210,10 +9234,10 @@
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C195" s="31" t="s">
-        <v>986</v>
+        <v>1009</v>
+      </c>
+      <c r="C195" s="30" t="s">
+        <v>975</v>
       </c>
       <c r="D195" t="s">
         <v>233</v>
@@ -9221,10 +9245,10 @@
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C196" s="31" t="s">
-        <v>987</v>
+        <v>1010</v>
+      </c>
+      <c r="C196" s="30" t="s">
+        <v>976</v>
       </c>
       <c r="D196" t="s">
         <v>233</v>
@@ -9232,10 +9256,10 @@
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C197" s="31" t="s">
-        <v>988</v>
+        <v>1011</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>977</v>
       </c>
       <c r="D197" t="s">
         <v>233</v>
@@ -9243,10 +9267,10 @@
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C198" s="31" t="s">
-        <v>989</v>
+        <v>1012</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>978</v>
       </c>
       <c r="D198" t="s">
         <v>233</v>
@@ -9254,10 +9278,10 @@
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C199" s="31" t="s">
-        <v>990</v>
+        <v>1013</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>979</v>
       </c>
       <c r="D199" t="s">
         <v>233</v>
@@ -9265,10 +9289,10 @@
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C200" s="31" t="s">
-        <v>991</v>
+        <v>1014</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>980</v>
       </c>
       <c r="D200" t="s">
         <v>233</v>
@@ -10661,47 +10685,47 @@
         <v>641</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>682</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C339" s="23" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C340" s="23" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C341" s="23" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C342" s="23" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C343" s="23" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C344" s="23" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A346" s="32" t="s">
-        <v>722</v>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="31" t="s">
+        <v>720</v>
       </c>
       <c r="B346" t="s">
         <v>89</v>
@@ -10710,10 +10734,10 @@
         <v>105</v>
       </c>
       <c r="D346" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>61</v>
       </c>
@@ -10724,20 +10748,20 @@
         <v>684</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C348" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D348" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C349" t="s">
         <v>669</v>
@@ -10746,34 +10770,37 @@
         <v>683</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C350" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D350" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E350" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C351" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D351" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C352" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D352" t="s">
         <v>683</v>
@@ -10781,10 +10808,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C353" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D353" t="s">
         <v>683</v>
@@ -10792,10 +10819,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C354" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D354" t="s">
         <v>683</v>
@@ -10803,10 +10830,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C355" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D355" t="s">
         <v>683</v>
@@ -10814,10 +10841,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C356" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D356" t="s">
         <v>683</v>
@@ -10825,10 +10852,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C357" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D357" t="s">
         <v>683</v>
@@ -10836,10 +10863,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C358" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D358" t="s">
         <v>683</v>
@@ -10847,10 +10874,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C359" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D359" t="s">
         <v>683</v>
@@ -10858,10 +10885,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C360" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D360" t="s">
         <v>683</v>
@@ -10869,197 +10896,197 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C361" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D361" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A363" s="32" t="s">
-        <v>723</v>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="31" t="s">
+        <v>721</v>
       </c>
       <c r="B363" t="s">
         <v>61</v>
       </c>
-      <c r="C363" s="30" t="s">
-        <v>62</v>
+      <c r="C363" t="s">
+        <v>685</v>
       </c>
       <c r="D363" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>774</v>
-      </c>
-      <c r="C364" s="30" t="s">
-        <v>686</v>
+        <v>769</v>
+      </c>
+      <c r="C364" t="s">
+        <v>687</v>
       </c>
       <c r="D364" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>775</v>
-      </c>
-      <c r="C365" s="30" t="s">
-        <v>687</v>
+        <v>770</v>
+      </c>
+      <c r="C365" t="s">
+        <v>669</v>
       </c>
       <c r="D365" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
-        <v>777</v>
-      </c>
-      <c r="C366" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="C366" s="29" t="s">
         <v>693</v>
       </c>
       <c r="D366" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>778</v>
-      </c>
-      <c r="C367" s="30" t="s">
-        <v>724</v>
+        <v>773</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1030</v>
       </c>
       <c r="D367" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>779</v>
-      </c>
-      <c r="C368" s="30" t="s">
-        <v>816</v>
+        <v>774</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1038</v>
       </c>
       <c r="D368" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
-        <v>780</v>
-      </c>
-      <c r="C369" s="30" t="s">
-        <v>817</v>
+        <v>775</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1031</v>
       </c>
       <c r="D369" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
-        <v>781</v>
-      </c>
-      <c r="C370" s="30" t="s">
-        <v>818</v>
+        <v>776</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1032</v>
       </c>
       <c r="D370" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>782</v>
-      </c>
-      <c r="C371" s="30" t="s">
-        <v>725</v>
+        <v>777</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1033</v>
       </c>
       <c r="D371" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>718</v>
-      </c>
-      <c r="C372" s="30" t="s">
-        <v>696</v>
+        <v>716</v>
+      </c>
+      <c r="C372" t="s">
+        <v>695</v>
       </c>
       <c r="D372" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>783</v>
-      </c>
-      <c r="C373" s="30" t="s">
-        <v>726</v>
+        <v>778</v>
+      </c>
+      <c r="C373" t="s">
+        <v>805</v>
       </c>
       <c r="D373" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C374" t="s">
-        <v>819</v>
+        <v>1034</v>
       </c>
       <c r="D374" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C375" t="s">
-        <v>820</v>
+        <v>1035</v>
       </c>
       <c r="D375" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C376" t="s">
-        <v>821</v>
+        <v>1036</v>
       </c>
       <c r="D376" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C377" t="s">
-        <v>727</v>
+        <v>1037</v>
       </c>
       <c r="D377" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
+        <v>783</v>
+      </c>
+      <c r="C378" t="s">
+        <v>955</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="31" t="s">
         <v>788</v>
-      </c>
-      <c r="C378" t="s">
-        <v>966</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A380" s="32" t="s">
-        <v>793</v>
       </c>
       <c r="B380" t="s">
         <v>61</v>
@@ -11068,230 +11095,230 @@
         <v>62</v>
       </c>
       <c r="D380" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C381" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D381" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C382" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="D382" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C383" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D383" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C384" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D384" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C385" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D385" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C386" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D386" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C387" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D387" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C388" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D388" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C389" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D389" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C390" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D390" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C391" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D391" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C392" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D392" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C393" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D393" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C394" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D394" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C395" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D395" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C396" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D396" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C397" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D397" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A399" s="32" t="s">
-        <v>822</v>
+      <c r="A399" s="31" t="s">
+        <v>811</v>
       </c>
       <c r="B399" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="C399" t="s">
         <v>685</v>
       </c>
       <c r="D399" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C400" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D400" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="C401" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="D401" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.2">
@@ -11299,224 +11326,224 @@
         <v>73</v>
       </c>
       <c r="C402" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D402" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C403" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D403" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="C404" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D404" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C405" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D405" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C406" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D406" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="C407" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D407" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C408" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D408" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C409" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D409" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C410" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="D410" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C411" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D411" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C412" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D412" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="C413" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D413" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C414" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D414" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C415" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D415" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C416" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D416" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="C417" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="D417" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C418" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D418" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C419" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D419" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="C420" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D420" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C421" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D421" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="32" t="s">
-        <v>851</v>
+      <c r="A423" s="31" t="s">
+        <v>840</v>
       </c>
       <c r="B423" t="s">
         <v>61</v>
@@ -11525,7 +11552,7 @@
         <v>62</v>
       </c>
       <c r="D423" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -11533,10 +11560,10 @@
         <v>63</v>
       </c>
       <c r="C424" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D424" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -11544,10 +11571,10 @@
         <v>75</v>
       </c>
       <c r="C425" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D425" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -11555,10 +11582,10 @@
         <v>67</v>
       </c>
       <c r="C426" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="D426" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -11566,32 +11593,32 @@
         <v>69</v>
       </c>
       <c r="C427" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="D427" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="C428" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D428" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="C429" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="D429" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -11599,206 +11626,206 @@
         <v>73</v>
       </c>
       <c r="C430" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D430" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C431" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D431" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C432" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D432" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C433" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D433" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C434" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D434" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C435" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D435" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="32" t="s">
-        <v>1038</v>
+      <c r="A437" s="31" t="s">
+        <v>1027</v>
       </c>
       <c r="B437" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="C437" t="s">
         <v>62</v>
       </c>
       <c r="D437" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="33"/>
+      <c r="A438" s="32"/>
       <c r="B438" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="33"/>
+      <c r="A439" s="32"/>
       <c r="B439" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C440" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="D440" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C441" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="D441" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C442" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D442" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C443" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="D443" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C444" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D444" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="C445" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="D445" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C446" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D446" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C447" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="D447" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C448" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D448" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C449" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="D449" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="32" t="s">
-        <v>873</v>
+      <c r="A451" s="31" t="s">
+        <v>862</v>
       </c>
       <c r="B451" t="s">
         <v>61</v>
@@ -11807,144 +11834,144 @@
         <v>62</v>
       </c>
       <c r="D451" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C452" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="D452" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C453" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="D453" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C454" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="D454" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="C455" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="D455" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C456" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="D456" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C457" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="D457" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C458" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="D458" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C459" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="D459" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C460" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="D460" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C461" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="D461" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C462" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D462" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="C463" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="D463" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A465" s="32" t="s">
-        <v>901</v>
+      <c r="A465" s="31" t="s">
+        <v>890</v>
       </c>
       <c r="B465" t="s">
         <v>61</v>
@@ -11953,199 +11980,199 @@
         <v>62</v>
       </c>
       <c r="D465" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="C466" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D466" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="C467" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="D467" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C468" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D468" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="C469" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="D469" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C470" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="D470" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="C471" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="D471" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C472" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="D472" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C473" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="D473" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C474" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="D474" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C475" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D475" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="C476" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="D476" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="C477" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="D477" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C478" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="D478" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C479" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="D479" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C480" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="D480" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C481" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="D481" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="C482" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="D482" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A484" s="29" t="s">
-        <v>917</v>
+      <c r="A484" s="31" t="s">
+        <v>906</v>
       </c>
       <c r="B484" t="s">
         <v>61</v>
@@ -12154,144 +12181,144 @@
         <v>62</v>
       </c>
       <c r="D484" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C485" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D485" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C486" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D486" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C487" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="D487" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C488" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="D488" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C489" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="D489" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C490" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D490" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="C491" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="D491" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="C492" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="D492" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C493" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D493" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="C494" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="D494" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C495" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D495" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="C496" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="D496" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A498" s="29" t="s">
-        <v>923</v>
+      <c r="A498" s="31" t="s">
+        <v>912</v>
       </c>
       <c r="B498" t="s">
         <v>61</v>
@@ -12300,133 +12327,133 @@
         <v>62</v>
       </c>
       <c r="D498" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C499" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="D499" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C500" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="D500" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="C501" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="D501" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="C502" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="D502" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="C503" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="D503" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="C504" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="D504" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="C505" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="D505" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C506" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="D506" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="C507" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="D507" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="C508" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="D508" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="C509" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D509" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A511" s="29" t="s">
-        <v>948</v>
+      <c r="A511" s="31" t="s">
+        <v>937</v>
       </c>
       <c r="B511" t="s">
         <v>61</v>
@@ -12435,128 +12462,128 @@
         <v>62</v>
       </c>
       <c r="D511" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C512" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="D512" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C513" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="D513" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C514" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="D514" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="C515" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="D515" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C516" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="D516" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="C517" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="D517" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C518" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D518" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C519" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D519" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="C520" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="D520" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="C521" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="D521" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="C522" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="D522" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -13296,10 +13323,10 @@
       <c r="D15" t="s">
         <v>556</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">

--- a/work/V1.2_新增字段(1月25号更新).xlsx
+++ b/work/V1.2_新增字段(1月25号更新).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89FBD75-71FA-4DAE-A3F6-E396E94220C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5F2E1-1464-4CC9-9F66-CD666DB71A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1039">
   <si>
     <t>字段名</t>
   </si>
@@ -7084,8 +7084,8 @@
   <dimension ref="A1:E522"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I349" sqref="I349"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J461" sqref="J461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10758,6 +10758,9 @@
       <c r="D348" t="s">
         <v>683</v>
       </c>
+      <c r="E348" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
@@ -10806,7 +10809,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>709</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>711</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>712</v>
       </c>
@@ -10838,8 +10841,11 @@
       <c r="D355" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E355" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>713</v>
       </c>
@@ -10849,8 +10855,11 @@
       <c r="D356" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E356" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>714</v>
       </c>
@@ -10860,8 +10869,11 @@
       <c r="D357" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E357" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>716</v>
       </c>
@@ -10872,7 +10884,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>717</v>
       </c>
@@ -10882,8 +10894,11 @@
       <c r="D359" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E359" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>718</v>
       </c>
@@ -10894,7 +10909,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>719</v>
       </c>
@@ -10905,7 +10920,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="31" t="s">
         <v>721</v>
       </c>
@@ -10919,7 +10934,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>769</v>
       </c>
@@ -10929,8 +10944,11 @@
       <c r="D364" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E364" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>770</v>
       </c>
@@ -10941,7 +10959,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>772</v>
       </c>
@@ -10951,8 +10969,11 @@
       <c r="D366" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E366" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>773</v>
       </c>
@@ -10963,7 +10984,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
         <v>774</v>
       </c>
@@ -10974,7 +10995,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>775</v>
       </c>
@@ -10985,7 +11006,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B370" t="s">
         <v>776</v>
       </c>
@@ -10996,7 +11017,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>777</v>
       </c>
@@ -11006,8 +11027,11 @@
       <c r="D371" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E371" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>716</v>
       </c>
@@ -11018,7 +11042,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>778</v>
       </c>
@@ -11028,8 +11052,11 @@
       <c r="D373" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="E373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B374" t="s">
         <v>779</v>
       </c>
@@ -11040,7 +11067,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B375" t="s">
         <v>780</v>
       </c>
@@ -11051,7 +11078,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B376" t="s">
         <v>781</v>
       </c>
@@ -11062,7 +11089,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
         <v>782</v>
       </c>
@@ -11073,7 +11100,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>783</v>
       </c>
@@ -11084,7 +11111,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="31" t="s">
         <v>788</v>
       </c>
@@ -11098,7 +11125,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>800</v>
       </c>
@@ -11108,8 +11135,11 @@
       <c r="D381" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E381" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>802</v>
       </c>
@@ -11119,8 +11149,11 @@
       <c r="D382" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E382" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>770</v>
       </c>
@@ -11131,7 +11164,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>771</v>
       </c>
@@ -11141,8 +11174,11 @@
       <c r="D384" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>774</v>
       </c>
@@ -11153,7 +11189,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
         <v>803</v>
       </c>
@@ -11164,7 +11200,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
         <v>775</v>
       </c>
@@ -11175,7 +11211,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
         <v>710</v>
       </c>
@@ -11186,7 +11222,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
         <v>777</v>
       </c>
@@ -11196,8 +11232,11 @@
       <c r="D389" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
         <v>804</v>
       </c>
@@ -11207,8 +11246,11 @@
       <c r="D390" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E390" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B391" t="s">
         <v>715</v>
       </c>
@@ -11219,7 +11261,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B392" t="s">
         <v>778</v>
       </c>
@@ -11229,8 +11271,11 @@
       <c r="D392" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E392" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
         <v>779</v>
       </c>
@@ -11241,7 +11286,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
         <v>780</v>
       </c>
@@ -11252,7 +11297,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
         <v>808</v>
       </c>
@@ -11262,8 +11307,11 @@
       <c r="D395" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E395" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
         <v>809</v>
       </c>
@@ -11274,7 +11322,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
         <v>810</v>
       </c>
@@ -11285,7 +11333,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="31" t="s">
         <v>811</v>
       </c>
@@ -11299,7 +11347,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
         <v>818</v>
       </c>
@@ -11310,7 +11358,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
         <v>817</v>
       </c>
@@ -11321,7 +11369,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
         <v>73</v>
       </c>
@@ -11331,8 +11379,11 @@
       <c r="D402" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
         <v>737</v>
       </c>
@@ -11343,7 +11394,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
         <v>820</v>
       </c>
@@ -11353,8 +11404,11 @@
       <c r="D404" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E404" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="405" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
         <v>740</v>
       </c>
@@ -11365,7 +11419,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
         <v>739</v>
       </c>
@@ -11376,7 +11430,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
         <v>823</v>
       </c>
@@ -11386,8 +11440,11 @@
       <c r="D407" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E407" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="408" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
         <v>824</v>
       </c>
@@ -11398,7 +11455,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
         <v>825</v>
       </c>
@@ -11408,8 +11465,11 @@
       <c r="D409" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E409" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="410" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
         <v>826</v>
       </c>
@@ -11420,7 +11480,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
         <v>827</v>
       </c>
@@ -11431,7 +11491,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
         <v>828</v>
       </c>
@@ -11442,7 +11502,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
         <v>833</v>
       </c>
@@ -11452,8 +11512,11 @@
       <c r="D413" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E413" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="414" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
         <v>829</v>
       </c>
@@ -11464,7 +11527,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
         <v>830</v>
       </c>
@@ -11475,7 +11538,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
         <v>831</v>
       </c>
@@ -11485,8 +11548,11 @@
       <c r="D416" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E416" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
         <v>832</v>
       </c>
@@ -11497,7 +11563,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
         <v>834</v>
       </c>
@@ -11508,7 +11574,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
         <v>835</v>
       </c>
@@ -11518,8 +11584,11 @@
       <c r="D419" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E419" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
         <v>838</v>
       </c>
@@ -11530,7 +11599,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B421" t="s">
         <v>839</v>
       </c>
@@ -11540,8 +11609,11 @@
       <c r="D421" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E421" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="31" t="s">
         <v>840</v>
       </c>
@@ -11555,7 +11627,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
         <v>63</v>
       </c>
@@ -11566,7 +11638,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
         <v>75</v>
       </c>
@@ -11576,8 +11648,11 @@
       <c r="D425" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E425" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
         <v>67</v>
       </c>
@@ -11588,7 +11663,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
         <v>69</v>
       </c>
@@ -11599,7 +11674,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
         <v>844</v>
       </c>
@@ -11610,7 +11685,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
         <v>845</v>
       </c>
@@ -11621,7 +11696,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
         <v>73</v>
       </c>
@@ -11631,8 +11706,11 @@
       <c r="D430" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E430" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
         <v>737</v>
       </c>
@@ -11643,7 +11721,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
         <v>738</v>
       </c>
@@ -11653,8 +11731,11 @@
       <c r="D432" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E432" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
         <v>739</v>
       </c>
@@ -11665,7 +11746,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
         <v>740</v>
       </c>
@@ -11676,7 +11757,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
         <v>741</v>
       </c>
@@ -11687,7 +11768,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" s="31" t="s">
         <v>1027</v>
       </c>
@@ -11701,19 +11782,19 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" s="32"/>
       <c r="B438" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" s="32"/>
       <c r="B439" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
         <v>853</v>
       </c>
@@ -11723,8 +11804,11 @@
       <c r="D440" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E440" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
         <v>854</v>
       </c>
@@ -11734,8 +11818,11 @@
       <c r="D441" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E441" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
         <v>855</v>
       </c>
@@ -11745,8 +11832,11 @@
       <c r="D442" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E442" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
         <v>856</v>
       </c>
@@ -11756,8 +11846,11 @@
       <c r="D443" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E443" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
         <v>807</v>
       </c>
@@ -11767,8 +11860,11 @@
       <c r="D444" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E444" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
         <v>857</v>
       </c>
@@ -11778,8 +11874,11 @@
       <c r="D445" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E445" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
         <v>777</v>
       </c>
@@ -11790,7 +11889,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
         <v>804</v>
       </c>
@@ -11800,8 +11899,11 @@
       <c r="D447" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E447" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
         <v>860</v>
       </c>
@@ -11811,8 +11913,11 @@
       <c r="D448" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E448" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
         <v>861</v>
       </c>
@@ -11822,8 +11927,11 @@
       <c r="D449" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E449" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="31" t="s">
         <v>862</v>
       </c>
@@ -11837,7 +11945,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B452" t="s">
         <v>878</v>
       </c>
@@ -11847,8 +11955,11 @@
       <c r="D452" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E452" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B453" t="s">
         <v>879</v>
       </c>
@@ -11858,8 +11969,11 @@
       <c r="D453" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E453" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
         <v>880</v>
       </c>
@@ -11870,7 +11984,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
         <v>881</v>
       </c>
@@ -11880,8 +11994,11 @@
       <c r="D455" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E455" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
         <v>882</v>
       </c>
@@ -11891,8 +12008,11 @@
       <c r="D456" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E456" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
         <v>883</v>
       </c>
@@ -11903,7 +12023,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
         <v>885</v>
       </c>
@@ -11913,8 +12033,11 @@
       <c r="D458" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E458" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
         <v>886</v>
       </c>
@@ -11924,8 +12047,11 @@
       <c r="D459" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E459" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
         <v>887</v>
       </c>
@@ -11935,8 +12061,11 @@
       <c r="D460" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E460" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
         <v>888</v>
       </c>
@@ -11946,8 +12075,11 @@
       <c r="D461" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E461" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B462" t="s">
         <v>807</v>
       </c>
@@ -11957,8 +12089,11 @@
       <c r="D462" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E462" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B463" t="s">
         <v>889</v>
       </c>
@@ -11968,8 +12103,11 @@
       <c r="D463" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E463" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="31" t="s">
         <v>890</v>
       </c>
@@ -11983,7 +12121,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
         <v>898</v>
       </c>
@@ -11994,7 +12132,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
         <v>900</v>
       </c>
@@ -12004,8 +12142,11 @@
       <c r="D467" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E467" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
         <v>901</v>
       </c>
@@ -12015,8 +12156,11 @@
       <c r="D468" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E468" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
         <v>904</v>
       </c>
@@ -12026,8 +12170,11 @@
       <c r="D469" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E469" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
         <v>807</v>
       </c>
@@ -12037,8 +12184,11 @@
       <c r="D470" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E470" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
         <v>889</v>
       </c>
@@ -12048,8 +12198,11 @@
       <c r="D471" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E471" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
         <v>878</v>
       </c>
@@ -12059,8 +12212,11 @@
       <c r="D472" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E472" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
         <v>879</v>
       </c>
@@ -12070,8 +12226,11 @@
       <c r="D473" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E473" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
         <v>880</v>
       </c>
@@ -12082,7 +12241,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
         <v>902</v>
       </c>
@@ -12092,8 +12251,11 @@
       <c r="D475" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E475" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
         <v>903</v>
       </c>
@@ -12103,8 +12265,11 @@
       <c r="D476" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E476" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
         <v>905</v>
       </c>
@@ -12114,8 +12279,11 @@
       <c r="D477" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E477" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
         <v>885</v>
       </c>
@@ -12125,8 +12293,11 @@
       <c r="D478" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E478" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
         <v>886</v>
       </c>
@@ -12136,8 +12307,11 @@
       <c r="D479" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E479" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
         <v>887</v>
       </c>
@@ -12147,8 +12321,11 @@
       <c r="D480" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E480" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B481" t="s">
         <v>888</v>
       </c>
@@ -12158,8 +12335,11 @@
       <c r="D481" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E481" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B482" t="s">
         <v>881</v>
       </c>
@@ -12169,8 +12349,11 @@
       <c r="D482" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E482" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="31" t="s">
         <v>906</v>
       </c>
@@ -12184,7 +12367,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B485" t="s">
         <v>878</v>
       </c>
@@ -12194,8 +12377,11 @@
       <c r="D485" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E485" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B486" t="s">
         <v>879</v>
       </c>
@@ -12205,8 +12391,11 @@
       <c r="D486" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E486" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B487" t="s">
         <v>880</v>
       </c>
@@ -12217,7 +12406,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B488" t="s">
         <v>885</v>
       </c>
@@ -12227,8 +12416,11 @@
       <c r="D488" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E488" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B489" t="s">
         <v>886</v>
       </c>
@@ -12238,8 +12430,11 @@
       <c r="D489" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E489" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
         <v>902</v>
       </c>
@@ -12249,8 +12444,11 @@
       <c r="D490" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E490" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
         <v>910</v>
       </c>
@@ -12260,8 +12458,11 @@
       <c r="D491" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E491" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
         <v>900</v>
       </c>
@@ -12271,8 +12472,11 @@
       <c r="D492" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E492" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
         <v>901</v>
       </c>
@@ -12282,8 +12486,11 @@
       <c r="D493" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E493" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
         <v>904</v>
       </c>
@@ -12293,8 +12500,11 @@
       <c r="D494" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E494" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
         <v>807</v>
       </c>
@@ -12304,8 +12514,11 @@
       <c r="D495" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E495" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
         <v>857</v>
       </c>
@@ -12315,8 +12528,11 @@
       <c r="D496" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E496" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="31" t="s">
         <v>912</v>
       </c>
@@ -12330,7 +12546,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
         <v>924</v>
       </c>
@@ -12340,8 +12556,11 @@
       <c r="D499" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E499" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B500" t="s">
         <v>926</v>
       </c>
@@ -12352,7 +12571,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B501" t="s">
         <v>927</v>
       </c>
@@ -12363,7 +12582,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B502" t="s">
         <v>930</v>
       </c>
@@ -12373,8 +12592,11 @@
       <c r="D502" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E502" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
         <v>931</v>
       </c>
@@ -12384,8 +12606,11 @@
       <c r="D503" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E503" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B504" t="s">
         <v>932</v>
       </c>
@@ -12395,8 +12620,11 @@
       <c r="D504" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E504" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B505" t="s">
         <v>933</v>
       </c>
@@ -12406,8 +12634,11 @@
       <c r="D505" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E505" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B506" t="s">
         <v>934</v>
       </c>
@@ -12417,8 +12648,11 @@
       <c r="D506" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E506" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B507" t="s">
         <v>948</v>
       </c>
@@ -12429,7 +12663,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B508" t="s">
         <v>935</v>
       </c>
@@ -12439,8 +12673,11 @@
       <c r="D508" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E508" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
         <v>936</v>
       </c>
@@ -12450,8 +12687,11 @@
       <c r="D509" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E509" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="31" t="s">
         <v>937</v>
       </c>
@@ -12465,7 +12705,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
         <v>924</v>
       </c>
@@ -12475,8 +12715,11 @@
       <c r="D512" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E512" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
         <v>943</v>
       </c>
@@ -12487,7 +12730,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
         <v>944</v>
       </c>
@@ -12498,7 +12741,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
         <v>946</v>
       </c>
@@ -12508,8 +12751,11 @@
       <c r="D515" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E515" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="516" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
         <v>947</v>
       </c>
@@ -12520,7 +12766,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
         <v>910</v>
       </c>
@@ -12530,8 +12776,11 @@
       <c r="D517" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E517" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
         <v>951</v>
       </c>
@@ -12541,8 +12790,11 @@
       <c r="D518" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E518" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
         <v>929</v>
       </c>
@@ -12552,8 +12804,11 @@
       <c r="D519" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E519" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
         <v>950</v>
       </c>
@@ -12563,8 +12818,11 @@
       <c r="D520" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E520" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
         <v>952</v>
       </c>
@@ -12574,8 +12832,11 @@
       <c r="D521" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E521" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
         <v>954</v>
       </c>
@@ -12584,6 +12845,9 @@
       </c>
       <c r="D522" t="s">
         <v>1025</v>
+      </c>
+      <c r="E522" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/work/V1.2_新增字段(1月25号更新).xlsx
+++ b/work/V1.2_新增字段(1月25号更新).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5F2E1-1464-4CC9-9F66-CD666DB71A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E344207-728B-4BD0-9DC2-8E6892F86F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1049">
   <si>
     <t>字段名</t>
   </si>
@@ -5535,6 +5535,36 @@
       <t>梁高度(m)</t>
     </r>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>拱桥矢跨比</t>
+  </si>
+  <si>
+    <t>支座型式</t>
+  </si>
+  <si>
+    <t>桥面结构</t>
+  </si>
+  <si>
+    <t>桥面铺装厚度</t>
+  </si>
+  <si>
+    <t>伸缩缝型式</t>
+  </si>
+  <si>
+    <t>伸缩缝数量</t>
+  </si>
+  <si>
+    <t>主桥纵坡</t>
+  </si>
+  <si>
+    <t>主桥横坡</t>
+  </si>
+  <si>
+    <t>引桥纵坡</t>
+  </si>
+  <si>
+    <t>引桥横坡</t>
   </si>
 </sst>
 </file>
@@ -5794,7 +5824,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5873,6 +5903,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5901,7 +5937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5942,6 +5978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7081,18 +7118,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E522"/>
+  <dimension ref="A1:E632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J461" sqref="J461"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="100.75" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
@@ -10809,7 +10846,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
         <v>709</v>
       </c>
@@ -10820,7 +10857,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
         <v>711</v>
       </c>
@@ -10831,7 +10868,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
         <v>712</v>
       </c>
@@ -10845,7 +10882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>713</v>
       </c>
@@ -10859,7 +10896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>714</v>
       </c>
@@ -10873,7 +10910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>716</v>
       </c>
@@ -10884,7 +10921,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>717</v>
       </c>
@@ -10898,7 +10935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>718</v>
       </c>
@@ -10909,7 +10946,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>719</v>
       </c>
@@ -10920,220 +10957,162 @@
         <v>683</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="31" t="s">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C362" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="363" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C363" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C364" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="365" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C365" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="366" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C366" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="367" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C367" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C368" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C369" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C370" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C371" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="31" t="s">
         <v>721</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B373" t="s">
         <v>61</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C373" t="s">
         <v>685</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B364" t="s">
-        <v>769</v>
-      </c>
-      <c r="C364" t="s">
-        <v>687</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E364" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B365" t="s">
-        <v>770</v>
-      </c>
-      <c r="C365" t="s">
-        <v>669</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B366" t="s">
-        <v>772</v>
-      </c>
-      <c r="C366" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E366" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B367" t="s">
-        <v>773</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B368" t="s">
-        <v>774</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D368" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B369" t="s">
-        <v>775</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B370" t="s">
-        <v>776</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D370" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B371" t="s">
-        <v>777</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E371" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B372" t="s">
-        <v>716</v>
-      </c>
-      <c r="C372" t="s">
-        <v>695</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B373" t="s">
-        <v>778</v>
-      </c>
-      <c r="C373" t="s">
-        <v>805</v>
       </c>
       <c r="D373" t="s">
         <v>1016</v>
       </c>
-      <c r="E373" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="C374" t="s">
-        <v>1034</v>
+        <v>687</v>
       </c>
       <c r="D374" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="E374" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="C375" t="s">
-        <v>1035</v>
+        <v>669</v>
       </c>
       <c r="D375" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
-        <v>781</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1036</v>
+        <v>772</v>
+      </c>
+      <c r="C376" s="29" t="s">
+        <v>693</v>
       </c>
       <c r="D376" t="s">
         <v>1016</v>
       </c>
+      <c r="E376" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C377" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="D377" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C378" t="s">
-        <v>955</v>
+        <v>1038</v>
       </c>
       <c r="D378" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="31" t="s">
-        <v>788</v>
-      </c>
+    <row r="379" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B379" t="s">
+        <v>775</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
-        <v>61</v>
+        <v>776</v>
       </c>
       <c r="C380" t="s">
-        <v>62</v>
+        <v>1032</v>
       </c>
       <c r="D380" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="C381" t="s">
-        <v>799</v>
+        <v>1033</v>
       </c>
       <c r="D381" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E381" t="s">
         <v>29</v>
@@ -11141,243 +11120,171 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>802</v>
+        <v>716</v>
       </c>
       <c r="C382" t="s">
-        <v>801</v>
+        <v>695</v>
       </c>
       <c r="D382" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E382" t="s">
-        <v>29</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C383" t="s">
-        <v>686</v>
+        <v>805</v>
       </c>
       <c r="D383" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E383" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B384" t="s">
+        <v>779</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B385" t="s">
+        <v>780</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B386" t="s">
+        <v>781</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>782</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B388" t="s">
+        <v>783</v>
+      </c>
+      <c r="C388" t="s">
+        <v>955</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C389" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C390" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C391" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C392" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C393" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C394" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C395" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C396" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C397" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C398" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="B400" t="s">
+        <v>61</v>
+      </c>
+      <c r="C400" t="s">
+        <v>62</v>
+      </c>
+      <c r="D400" t="s">
         <v>1017</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B384" t="s">
-        <v>771</v>
-      </c>
-      <c r="C384" t="s">
-        <v>692</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E384" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B385" t="s">
-        <v>774</v>
-      </c>
-      <c r="C385" t="s">
-        <v>789</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B386" t="s">
-        <v>803</v>
-      </c>
-      <c r="C386" t="s">
-        <v>790</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B387" t="s">
-        <v>775</v>
-      </c>
-      <c r="C387" t="s">
-        <v>791</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B388" t="s">
-        <v>710</v>
-      </c>
-      <c r="C388" t="s">
-        <v>688</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B389" t="s">
-        <v>777</v>
-      </c>
-      <c r="C389" t="s">
-        <v>722</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E389" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B390" t="s">
-        <v>804</v>
-      </c>
-      <c r="C390" t="s">
-        <v>792</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E390" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B391" t="s">
-        <v>715</v>
-      </c>
-      <c r="C391" t="s">
-        <v>695</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B392" t="s">
-        <v>778</v>
-      </c>
-      <c r="C392" t="s">
-        <v>805</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E392" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B393" t="s">
-        <v>779</v>
-      </c>
-      <c r="C393" t="s">
-        <v>793</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B394" t="s">
-        <v>780</v>
-      </c>
-      <c r="C394" t="s">
-        <v>794</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B395" t="s">
-        <v>808</v>
-      </c>
-      <c r="C395" t="s">
-        <v>806</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E395" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B396" t="s">
-        <v>809</v>
-      </c>
-      <c r="C396" t="s">
-        <v>796</v>
-      </c>
-      <c r="D396" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B397" t="s">
-        <v>810</v>
-      </c>
-      <c r="C397" t="s">
-        <v>797</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="B399" t="s">
-        <v>876</v>
-      </c>
-      <c r="C399" t="s">
-        <v>685</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B400" t="s">
-        <v>818</v>
-      </c>
-      <c r="C400" t="s">
-        <v>812</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="401" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B401" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="C401" t="s">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="D401" t="s">
-        <v>1018</v>
+        <v>1017</v>
+      </c>
+      <c r="E401" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="402" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B402" t="s">
-        <v>73</v>
+        <v>802</v>
       </c>
       <c r="C402" t="s">
-        <v>755</v>
+        <v>801</v>
       </c>
       <c r="D402" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E402" t="s">
         <v>29</v>
@@ -11385,24 +11292,24 @@
     </row>
     <row r="403" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="C403" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="D403" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
-        <v>820</v>
+        <v>771</v>
       </c>
       <c r="C404" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
       <c r="D404" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E404" t="s">
         <v>29</v>
@@ -11410,60 +11317,57 @@
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="C405" t="s">
-        <v>729</v>
+        <v>789</v>
       </c>
       <c r="D405" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
-        <v>739</v>
+        <v>803</v>
       </c>
       <c r="C406" t="s">
-        <v>727</v>
+        <v>790</v>
       </c>
       <c r="D406" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="407" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
-        <v>823</v>
+        <v>775</v>
       </c>
       <c r="C407" t="s">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="D407" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E407" t="s">
-        <v>29</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
-        <v>824</v>
+        <v>710</v>
       </c>
       <c r="C408" t="s">
-        <v>758</v>
+        <v>688</v>
       </c>
       <c r="D408" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="409" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
-        <v>825</v>
+        <v>777</v>
       </c>
       <c r="C409" t="s">
-        <v>759</v>
+        <v>722</v>
       </c>
       <c r="D409" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E409" t="s">
         <v>29</v>
@@ -11471,978 +11375,721 @@
     </row>
     <row r="410" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
       <c r="C410" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="D410" t="s">
-        <v>1018</v>
+        <v>1017</v>
+      </c>
+      <c r="E410" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B411" t="s">
-        <v>827</v>
+        <v>715</v>
       </c>
       <c r="C411" t="s">
-        <v>814</v>
+        <v>695</v>
       </c>
       <c r="D411" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B412" t="s">
-        <v>828</v>
+        <v>778</v>
       </c>
       <c r="C412" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="D412" t="s">
-        <v>1018</v>
+        <v>1017</v>
+      </c>
+      <c r="E412" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="413" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
-        <v>833</v>
+        <v>779</v>
       </c>
       <c r="C413" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="D413" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E413" t="s">
-        <v>29</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="414" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
-        <v>829</v>
+        <v>780</v>
       </c>
       <c r="C414" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="D414" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="415" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="C415" t="s">
-        <v>762</v>
+        <v>806</v>
       </c>
       <c r="D415" t="s">
-        <v>1018</v>
+        <v>1017</v>
+      </c>
+      <c r="E415" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="416" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="C416" t="s">
-        <v>763</v>
+        <v>796</v>
       </c>
       <c r="D416" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E416" t="s">
-        <v>29</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="C417" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="D417" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C418" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C419" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C420" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C421" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C422" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C423" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C424" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C425" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C426" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C427" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B429" t="s">
+        <v>876</v>
+      </c>
+      <c r="C429" t="s">
+        <v>685</v>
+      </c>
+      <c r="D429" t="s">
         <v>1018</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B418" t="s">
-        <v>834</v>
-      </c>
-      <c r="C418" t="s">
-        <v>765</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B419" t="s">
-        <v>835</v>
-      </c>
-      <c r="C419" t="s">
-        <v>764</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E419" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B420" t="s">
-        <v>838</v>
-      </c>
-      <c r="C420" t="s">
-        <v>766</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B421" t="s">
-        <v>839</v>
-      </c>
-      <c r="C421" t="s">
-        <v>767</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E421" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="31" t="s">
-        <v>840</v>
-      </c>
-      <c r="B423" t="s">
-        <v>61</v>
-      </c>
-      <c r="C423" t="s">
-        <v>62</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B424" t="s">
-        <v>63</v>
-      </c>
-      <c r="C424" t="s">
-        <v>687</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B425" t="s">
-        <v>75</v>
-      </c>
-      <c r="C425" t="s">
-        <v>692</v>
-      </c>
-      <c r="D425" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E425" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B426" t="s">
-        <v>67</v>
-      </c>
-      <c r="C426" t="s">
-        <v>843</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B427" t="s">
-        <v>69</v>
-      </c>
-      <c r="C427" t="s">
-        <v>841</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B428" t="s">
-        <v>844</v>
-      </c>
-      <c r="C428" t="s">
-        <v>790</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B429" t="s">
-        <v>845</v>
-      </c>
-      <c r="C429" t="s">
-        <v>842</v>
-      </c>
-      <c r="D429" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
-        <v>73</v>
+        <v>818</v>
       </c>
       <c r="C430" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
       <c r="D430" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E430" t="s">
-        <v>29</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B431" t="s">
-        <v>737</v>
+        <v>817</v>
       </c>
       <c r="C431" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="D431" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B432" t="s">
-        <v>738</v>
+        <v>73</v>
       </c>
       <c r="C432" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="D432" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E432" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
+        <v>737</v>
+      </c>
+      <c r="C433" t="s">
+        <v>723</v>
+      </c>
+      <c r="D433" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
+        <v>820</v>
+      </c>
+      <c r="C434" t="s">
+        <v>756</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E434" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
+        <v>740</v>
+      </c>
+      <c r="C435" t="s">
+        <v>729</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
         <v>739</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C436" t="s">
         <v>727</v>
       </c>
-      <c r="D433" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B434" t="s">
-        <v>740</v>
-      </c>
-      <c r="C434" t="s">
-        <v>729</v>
-      </c>
-      <c r="D434" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B435" t="s">
-        <v>741</v>
-      </c>
-      <c r="C435" t="s">
-        <v>731</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437" s="31" t="s">
-        <v>1027</v>
-      </c>
+      <c r="D436" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
-        <v>876</v>
+        <v>823</v>
       </c>
       <c r="C437" t="s">
-        <v>62</v>
+        <v>757</v>
       </c>
       <c r="D437" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438" s="32"/>
+        <v>1018</v>
+      </c>
+      <c r="E437" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439" s="32"/>
+        <v>824</v>
+      </c>
+      <c r="C438" t="s">
+        <v>758</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+      <c r="C439" t="s">
+        <v>759</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E439" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="C440" t="s">
-        <v>851</v>
+        <v>813</v>
       </c>
       <c r="D440" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E440" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B441" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="C441" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="D441" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E441" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B442" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="C442" t="s">
-        <v>847</v>
+        <v>760</v>
       </c>
       <c r="D442" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E442" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="C443" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="D443" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E443" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="C444" t="s">
-        <v>806</v>
+        <v>761</v>
       </c>
       <c r="D444" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E444" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
+        <v>830</v>
+      </c>
+      <c r="C445" t="s">
+        <v>762</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
+        <v>831</v>
+      </c>
+      <c r="C446" t="s">
+        <v>763</v>
+      </c>
+      <c r="D446" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E446" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B445" t="s">
-        <v>857</v>
-      </c>
-      <c r="C445" t="s">
-        <v>849</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E445" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B446" t="s">
-        <v>777</v>
-      </c>
-      <c r="C446" t="s">
-        <v>722</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="C447" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="D447" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E447" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="C448" t="s">
-        <v>859</v>
+        <v>765</v>
       </c>
       <c r="D448" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E448" t="s">
-        <v>29</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
       <c r="C449" t="s">
-        <v>850</v>
+        <v>764</v>
       </c>
       <c r="D449" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E449" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
+        <v>838</v>
+      </c>
+      <c r="C450" t="s">
+        <v>766</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1018</v>
+      </c>
+    </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A451" s="31" t="s">
-        <v>862</v>
-      </c>
       <c r="B451" t="s">
+        <v>839</v>
+      </c>
+      <c r="C451" t="s">
+        <v>767</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E451" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C452" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C453" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C454" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C455" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C456" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C457" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C458" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C459" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C460" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C461" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="31" t="s">
+        <v>840</v>
+      </c>
+      <c r="B463" t="s">
         <v>61</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C463" t="s">
         <v>62</v>
       </c>
-      <c r="D451" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B452" t="s">
-        <v>878</v>
-      </c>
-      <c r="C452" t="s">
-        <v>877</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E452" t="s">
+      <c r="D463" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B464" t="s">
+        <v>63</v>
+      </c>
+      <c r="C464" t="s">
+        <v>687</v>
+      </c>
+      <c r="D464" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B465" t="s">
+        <v>75</v>
+      </c>
+      <c r="C465" t="s">
+        <v>692</v>
+      </c>
+      <c r="D465" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E465" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B453" t="s">
-        <v>879</v>
-      </c>
-      <c r="C453" t="s">
-        <v>867</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E453" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B454" t="s">
-        <v>880</v>
-      </c>
-      <c r="C454" t="s">
-        <v>865</v>
-      </c>
-      <c r="D454" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B455" t="s">
-        <v>881</v>
-      </c>
-      <c r="C455" t="s">
-        <v>866</v>
-      </c>
-      <c r="D455" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E455" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B456" t="s">
-        <v>882</v>
-      </c>
-      <c r="C456" t="s">
-        <v>868</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E456" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B457" t="s">
-        <v>883</v>
-      </c>
-      <c r="C457" t="s">
-        <v>869</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B458" t="s">
-        <v>885</v>
-      </c>
-      <c r="C458" t="s">
-        <v>884</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E458" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B459" t="s">
-        <v>886</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D459" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E459" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B460" t="s">
-        <v>887</v>
-      </c>
-      <c r="C460" t="s">
-        <v>874</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E460" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B461" t="s">
-        <v>888</v>
-      </c>
-      <c r="C461" t="s">
-        <v>873</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E461" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B462" t="s">
-        <v>807</v>
-      </c>
-      <c r="C462" t="s">
-        <v>795</v>
-      </c>
-      <c r="D462" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E462" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B463" t="s">
-        <v>889</v>
-      </c>
-      <c r="C463" t="s">
-        <v>875</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E463" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="B465" t="s">
-        <v>61</v>
-      </c>
-      <c r="C465" t="s">
-        <v>62</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
-        <v>898</v>
+        <v>67</v>
       </c>
       <c r="C466" t="s">
-        <v>897</v>
+        <v>843</v>
       </c>
       <c r="D466" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="467" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
-        <v>900</v>
+        <v>69</v>
       </c>
       <c r="C467" t="s">
-        <v>899</v>
+        <v>841</v>
       </c>
       <c r="D467" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E467" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="468" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
-        <v>901</v>
+        <v>844</v>
       </c>
       <c r="C468" t="s">
-        <v>892</v>
+        <v>790</v>
       </c>
       <c r="D468" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E468" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="469" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
-        <v>904</v>
+        <v>845</v>
       </c>
       <c r="C469" t="s">
-        <v>1029</v>
+        <v>842</v>
       </c>
       <c r="D469" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E469" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="470" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
-        <v>807</v>
+        <v>73</v>
       </c>
       <c r="C470" t="s">
-        <v>911</v>
+        <v>755</v>
       </c>
       <c r="D470" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E470" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
-        <v>889</v>
+        <v>737</v>
       </c>
       <c r="C471" t="s">
-        <v>875</v>
+        <v>723</v>
       </c>
       <c r="D471" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E471" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="472" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B472" t="s">
-        <v>878</v>
+        <v>738</v>
       </c>
       <c r="C472" t="s">
-        <v>877</v>
+        <v>725</v>
       </c>
       <c r="D472" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E472" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B473" t="s">
-        <v>879</v>
+        <v>739</v>
       </c>
       <c r="C473" t="s">
-        <v>864</v>
+        <v>727</v>
       </c>
       <c r="D473" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E473" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="474" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
-        <v>880</v>
+        <v>740</v>
       </c>
       <c r="C474" t="s">
-        <v>865</v>
+        <v>729</v>
       </c>
       <c r="D474" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
-        <v>902</v>
+        <v>741</v>
       </c>
       <c r="C475" t="s">
-        <v>894</v>
+        <v>731</v>
       </c>
       <c r="D475" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E475" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B476" t="s">
-        <v>903</v>
-      </c>
-      <c r="C476" t="s">
-        <v>895</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E476" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B477" t="s">
-        <v>905</v>
-      </c>
-      <c r="C477" t="s">
-        <v>896</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E477" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B478" t="s">
-        <v>885</v>
-      </c>
-      <c r="C478" t="s">
-        <v>870</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E478" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B479" t="s">
-        <v>886</v>
-      </c>
-      <c r="C479" t="s">
-        <v>871</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E479" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B480" t="s">
-        <v>887</v>
-      </c>
-      <c r="C480" t="s">
-        <v>872</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E480" t="s">
-        <v>29</v>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C476" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="477" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C477" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C478" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="479" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C479" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="480" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C480" s="34" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B481" t="s">
-        <v>888</v>
-      </c>
-      <c r="C481" t="s">
-        <v>873</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E481" t="s">
-        <v>29</v>
+      <c r="C481" s="34" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B482" t="s">
-        <v>881</v>
-      </c>
-      <c r="C482" t="s">
-        <v>866</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E482" t="s">
-        <v>29</v>
+      <c r="C482" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C483" s="34" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A484" s="31" t="s">
-        <v>906</v>
-      </c>
-      <c r="B484" t="s">
-        <v>61</v>
-      </c>
-      <c r="C484" t="s">
+      <c r="C484" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C485" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B487" t="s">
+        <v>876</v>
+      </c>
+      <c r="C487" t="s">
         <v>62</v>
       </c>
-      <c r="D484" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B485" t="s">
-        <v>878</v>
-      </c>
-      <c r="C485" t="s">
-        <v>863</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E485" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B486" t="s">
-        <v>879</v>
-      </c>
-      <c r="C486" t="s">
-        <v>907</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E486" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B487" t="s">
-        <v>880</v>
-      </c>
-      <c r="C487" t="s">
-        <v>865</v>
-      </c>
       <c r="D487" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="32"/>
       <c r="B488" t="s">
-        <v>885</v>
-      </c>
-      <c r="C488" t="s">
-        <v>870</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E488" t="s">
-        <v>29</v>
+        <v>463</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489" s="32"/>
       <c r="B489" t="s">
-        <v>886</v>
-      </c>
-      <c r="C489" t="s">
-        <v>871</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E489" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B490" t="s">
-        <v>902</v>
+        <v>853</v>
       </c>
       <c r="C490" t="s">
-        <v>894</v>
+        <v>851</v>
       </c>
       <c r="D490" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E490" t="s">
         <v>29</v>
@@ -12450,13 +12097,13 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B491" t="s">
-        <v>910</v>
+        <v>854</v>
       </c>
       <c r="C491" t="s">
-        <v>908</v>
+        <v>846</v>
       </c>
       <c r="D491" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E491" t="s">
         <v>29</v>
@@ -12464,13 +12111,13 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B492" t="s">
-        <v>900</v>
+        <v>855</v>
       </c>
       <c r="C492" t="s">
-        <v>891</v>
+        <v>847</v>
       </c>
       <c r="D492" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E492" t="s">
         <v>29</v>
@@ -12478,13 +12125,13 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B493" t="s">
-        <v>901</v>
+        <v>856</v>
       </c>
       <c r="C493" t="s">
-        <v>892</v>
+        <v>848</v>
       </c>
       <c r="D493" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E493" t="s">
         <v>29</v>
@@ -12492,13 +12139,13 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B494" t="s">
-        <v>904</v>
+        <v>807</v>
       </c>
       <c r="C494" t="s">
-        <v>893</v>
+        <v>806</v>
       </c>
       <c r="D494" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E494" t="s">
         <v>29</v>
@@ -12506,13 +12153,13 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B495" t="s">
-        <v>807</v>
+        <v>857</v>
       </c>
       <c r="C495" t="s">
-        <v>795</v>
+        <v>849</v>
       </c>
       <c r="D495" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="E495" t="s">
         <v>29</v>
@@ -12520,180 +12167,110 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B496" t="s">
-        <v>857</v>
+        <v>777</v>
       </c>
       <c r="C496" t="s">
-        <v>909</v>
+        <v>722</v>
       </c>
       <c r="D496" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E496" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B497" t="s">
+        <v>804</v>
+      </c>
+      <c r="C497" t="s">
+        <v>858</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E497" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="31" t="s">
-        <v>912</v>
-      </c>
       <c r="B498" t="s">
-        <v>61</v>
+        <v>860</v>
       </c>
       <c r="C498" t="s">
-        <v>62</v>
+        <v>859</v>
       </c>
       <c r="D498" t="s">
-        <v>1024</v>
+        <v>1020</v>
+      </c>
+      <c r="E498" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B499" t="s">
-        <v>924</v>
+        <v>861</v>
       </c>
       <c r="C499" t="s">
-        <v>923</v>
+        <v>850</v>
       </c>
       <c r="D499" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E499" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B500" t="s">
-        <v>926</v>
-      </c>
-      <c r="C500" t="s">
-        <v>925</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1024</v>
+      <c r="C500" s="34" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B501" t="s">
-        <v>927</v>
-      </c>
-      <c r="C501" t="s">
-        <v>914</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1024</v>
+      <c r="C501" s="34" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B502" t="s">
-        <v>930</v>
-      </c>
-      <c r="C502" t="s">
-        <v>928</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E502" t="s">
-        <v>29</v>
+      <c r="C502" s="34" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B503" t="s">
-        <v>931</v>
-      </c>
-      <c r="C503" t="s">
-        <v>922</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E503" t="s">
-        <v>29</v>
+      <c r="C503" s="34" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B504" t="s">
-        <v>932</v>
-      </c>
-      <c r="C504" t="s">
-        <v>917</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E504" t="s">
-        <v>29</v>
+      <c r="C504" s="34" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B505" t="s">
-        <v>933</v>
-      </c>
-      <c r="C505" t="s">
-        <v>916</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E505" t="s">
-        <v>29</v>
+      <c r="C505" s="34" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B506" t="s">
-        <v>934</v>
-      </c>
-      <c r="C506" t="s">
-        <v>918</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E506" t="s">
-        <v>29</v>
+      <c r="C506" s="34" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B507" t="s">
-        <v>948</v>
-      </c>
-      <c r="C507" t="s">
-        <v>919</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1024</v>
+      <c r="C507" s="34" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B508" t="s">
-        <v>935</v>
-      </c>
-      <c r="C508" t="s">
-        <v>920</v>
-      </c>
-      <c r="D508" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E508" t="s">
-        <v>29</v>
+      <c r="C508" s="34" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B509" t="s">
-        <v>936</v>
-      </c>
-      <c r="C509" t="s">
-        <v>921</v>
-      </c>
-      <c r="D509" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E509" t="s">
-        <v>29</v>
+      <c r="C509" s="34" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="31" t="s">
-        <v>937</v>
+        <v>862</v>
       </c>
       <c r="B511" t="s">
         <v>61</v>
@@ -12702,18 +12279,18 @@
         <v>62</v>
       </c>
       <c r="D511" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="C512" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="D512" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E512" t="s">
         <v>29</v>
@@ -12721,35 +12298,38 @@
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B513" t="s">
-        <v>943</v>
+        <v>879</v>
       </c>
       <c r="C513" t="s">
-        <v>938</v>
+        <v>867</v>
       </c>
       <c r="D513" t="s">
-        <v>1025</v>
+        <v>1021</v>
+      </c>
+      <c r="E513" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="514" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B514" t="s">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="C514" t="s">
-        <v>939</v>
+        <v>865</v>
       </c>
       <c r="D514" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="515" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B515" t="s">
-        <v>946</v>
+        <v>881</v>
       </c>
       <c r="C515" t="s">
-        <v>945</v>
+        <v>866</v>
       </c>
       <c r="D515" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E515" t="s">
         <v>29</v>
@@ -12757,38 +12337,38 @@
     </row>
     <row r="516" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B516" t="s">
-        <v>947</v>
+        <v>882</v>
       </c>
       <c r="C516" t="s">
-        <v>940</v>
+        <v>868</v>
       </c>
       <c r="D516" t="s">
-        <v>1025</v>
+        <v>1021</v>
+      </c>
+      <c r="E516" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="517" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B517" t="s">
-        <v>910</v>
+        <v>883</v>
       </c>
       <c r="C517" t="s">
-        <v>908</v>
+        <v>869</v>
       </c>
       <c r="D517" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E517" t="s">
-        <v>29</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="518" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B518" t="s">
-        <v>951</v>
+        <v>885</v>
       </c>
       <c r="C518" t="s">
-        <v>941</v>
+        <v>884</v>
       </c>
       <c r="D518" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E518" t="s">
         <v>29</v>
@@ -12796,13 +12376,13 @@
     </row>
     <row r="519" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B519" t="s">
-        <v>929</v>
+        <v>886</v>
       </c>
       <c r="C519" t="s">
-        <v>915</v>
+        <v>1028</v>
       </c>
       <c r="D519" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E519" t="s">
         <v>29</v>
@@ -12810,13 +12390,13 @@
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B520" t="s">
-        <v>950</v>
+        <v>887</v>
       </c>
       <c r="C520" t="s">
-        <v>949</v>
+        <v>874</v>
       </c>
       <c r="D520" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E520" t="s">
         <v>29</v>
@@ -12824,13 +12404,13 @@
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B521" t="s">
-        <v>952</v>
+        <v>888</v>
       </c>
       <c r="C521" t="s">
-        <v>942</v>
+        <v>873</v>
       </c>
       <c r="D521" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E521" t="s">
         <v>29</v>
@@ -12838,16 +12418,1023 @@
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B522" t="s">
-        <v>954</v>
+        <v>807</v>
       </c>
       <c r="C522" t="s">
-        <v>953</v>
+        <v>795</v>
       </c>
       <c r="D522" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="E522" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B523" t="s">
+        <v>889</v>
+      </c>
+      <c r="C523" t="s">
+        <v>875</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E523" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C524" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C525" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C526" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C527" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C528" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C529" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C530" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C531" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C532" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C533" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="B535" t="s">
+        <v>61</v>
+      </c>
+      <c r="C535" t="s">
+        <v>62</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B536" t="s">
+        <v>898</v>
+      </c>
+      <c r="C536" t="s">
+        <v>897</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B537" t="s">
+        <v>900</v>
+      </c>
+      <c r="C537" t="s">
+        <v>899</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E537" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B538" t="s">
+        <v>901</v>
+      </c>
+      <c r="C538" t="s">
+        <v>892</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E538" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B539" t="s">
+        <v>904</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E539" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B540" t="s">
+        <v>807</v>
+      </c>
+      <c r="C540" t="s">
+        <v>911</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E540" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B541" t="s">
+        <v>889</v>
+      </c>
+      <c r="C541" t="s">
+        <v>875</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E541" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B542" t="s">
+        <v>878</v>
+      </c>
+      <c r="C542" t="s">
+        <v>877</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E542" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B543" t="s">
+        <v>879</v>
+      </c>
+      <c r="C543" t="s">
+        <v>864</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E543" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B544" t="s">
+        <v>880</v>
+      </c>
+      <c r="C544" t="s">
+        <v>865</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B545" t="s">
+        <v>902</v>
+      </c>
+      <c r="C545" t="s">
+        <v>894</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E545" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="546" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B546" t="s">
+        <v>903</v>
+      </c>
+      <c r="C546" t="s">
+        <v>895</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E546" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="547" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B547" t="s">
+        <v>905</v>
+      </c>
+      <c r="C547" t="s">
+        <v>896</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E547" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="548" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B548" t="s">
+        <v>885</v>
+      </c>
+      <c r="C548" t="s">
+        <v>870</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E548" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="549" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B549" t="s">
+        <v>886</v>
+      </c>
+      <c r="C549" t="s">
+        <v>871</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E549" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="550" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B550" t="s">
+        <v>887</v>
+      </c>
+      <c r="C550" t="s">
+        <v>872</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E550" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="551" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B551" t="s">
+        <v>888</v>
+      </c>
+      <c r="C551" t="s">
+        <v>873</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E551" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="552" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B552" t="s">
+        <v>881</v>
+      </c>
+      <c r="C552" t="s">
+        <v>866</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E552" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="553" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C553" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="554" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C554" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="555" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C555" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="556" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C556" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="557" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C557" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="558" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C558" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="559" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C559" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="560" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C560" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C561" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C562" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="B564" t="s">
+        <v>61</v>
+      </c>
+      <c r="C564" t="s">
+        <v>62</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B565" t="s">
+        <v>878</v>
+      </c>
+      <c r="C565" t="s">
+        <v>863</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E565" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B566" t="s">
+        <v>879</v>
+      </c>
+      <c r="C566" t="s">
+        <v>907</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E566" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B567" t="s">
+        <v>880</v>
+      </c>
+      <c r="C567" t="s">
+        <v>865</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B568" t="s">
+        <v>885</v>
+      </c>
+      <c r="C568" t="s">
+        <v>870</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E568" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B569" t="s">
+        <v>886</v>
+      </c>
+      <c r="C569" t="s">
+        <v>871</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E569" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B570" t="s">
+        <v>902</v>
+      </c>
+      <c r="C570" t="s">
+        <v>894</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E570" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B571" t="s">
+        <v>910</v>
+      </c>
+      <c r="C571" t="s">
+        <v>908</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E571" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B572" t="s">
+        <v>900</v>
+      </c>
+      <c r="C572" t="s">
+        <v>891</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E572" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B573" t="s">
+        <v>901</v>
+      </c>
+      <c r="C573" t="s">
+        <v>892</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E573" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B574" t="s">
+        <v>904</v>
+      </c>
+      <c r="C574" t="s">
+        <v>893</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E574" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B575" t="s">
+        <v>807</v>
+      </c>
+      <c r="C575" t="s">
+        <v>795</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E575" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B576" t="s">
+        <v>857</v>
+      </c>
+      <c r="C576" t="s">
+        <v>909</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E576" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C577" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C578" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C579" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C580" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C581" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C582" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C583" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C584" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C585" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C586" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="B588" t="s">
+        <v>61</v>
+      </c>
+      <c r="C588" t="s">
+        <v>62</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B589" t="s">
+        <v>924</v>
+      </c>
+      <c r="C589" t="s">
+        <v>923</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E589" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B590" t="s">
+        <v>926</v>
+      </c>
+      <c r="C590" t="s">
+        <v>925</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B591" t="s">
+        <v>927</v>
+      </c>
+      <c r="C591" t="s">
+        <v>914</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B592" t="s">
+        <v>930</v>
+      </c>
+      <c r="C592" t="s">
+        <v>928</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E592" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="593" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B593" t="s">
+        <v>931</v>
+      </c>
+      <c r="C593" t="s">
+        <v>922</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E593" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="594" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B594" t="s">
+        <v>932</v>
+      </c>
+      <c r="C594" t="s">
+        <v>917</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E594" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B595" t="s">
+        <v>933</v>
+      </c>
+      <c r="C595" t="s">
+        <v>916</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E595" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B596" t="s">
+        <v>934</v>
+      </c>
+      <c r="C596" t="s">
+        <v>918</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E596" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="597" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B597" t="s">
+        <v>948</v>
+      </c>
+      <c r="C597" t="s">
+        <v>919</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="598" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B598" t="s">
+        <v>935</v>
+      </c>
+      <c r="C598" t="s">
+        <v>920</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E598" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B599" t="s">
+        <v>936</v>
+      </c>
+      <c r="C599" t="s">
+        <v>921</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E599" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="600" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C600" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="601" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C601" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="602" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C602" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="603" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C603" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C604" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="605" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C605" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="606" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C606" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="607" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C607" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="608" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C608" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C609" s="34" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611" s="31" t="s">
+        <v>937</v>
+      </c>
+      <c r="B611" t="s">
+        <v>61</v>
+      </c>
+      <c r="C611" t="s">
+        <v>62</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B612" t="s">
+        <v>924</v>
+      </c>
+      <c r="C612" t="s">
+        <v>913</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E612" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B613" t="s">
+        <v>943</v>
+      </c>
+      <c r="C613" t="s">
+        <v>938</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B614" t="s">
+        <v>944</v>
+      </c>
+      <c r="C614" t="s">
+        <v>939</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B615" t="s">
+        <v>946</v>
+      </c>
+      <c r="C615" t="s">
+        <v>945</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E615" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B616" t="s">
+        <v>947</v>
+      </c>
+      <c r="C616" t="s">
+        <v>940</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B617" t="s">
+        <v>910</v>
+      </c>
+      <c r="C617" t="s">
+        <v>908</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E617" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B618" t="s">
+        <v>951</v>
+      </c>
+      <c r="C618" t="s">
+        <v>941</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E618" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B619" t="s">
+        <v>929</v>
+      </c>
+      <c r="C619" t="s">
+        <v>915</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E619" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B620" t="s">
+        <v>950</v>
+      </c>
+      <c r="C620" t="s">
+        <v>949</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E620" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B621" t="s">
+        <v>952</v>
+      </c>
+      <c r="C621" t="s">
+        <v>942</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E621" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B622" t="s">
+        <v>954</v>
+      </c>
+      <c r="C622" t="s">
+        <v>953</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E622" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C623" s="34" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C624" s="34" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C625" s="34" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C626" s="34" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C627" s="34" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C628" s="34" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C629" s="34" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C630" s="34" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C631" s="34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C632" s="34" t="s">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
